--- a/results/I3_N5_M2_T30_C100_DepLowerLeft_s0_P6_res.xlsx
+++ b/results/I3_N5_M2_T30_C100_DepLowerLeft_s0_P6_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2857.693930162527</v>
+        <v>856.9010767742673</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.009000062942504883</v>
+        <v>0.003000020980834961</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>41.99399897576404</v>
+        <v>42.9010767742673</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>22.54396777754244</v>
+        <v>10.90513640446556</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>17.11389896431544</v>
+        <v>10.90513640446556</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2168.21999999999</v>
+        <v>316</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>652.91</v>
+        <v>498</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,7 +584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -606,7 +606,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -628,67 +628,12 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>5</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>5</v>
-      </c>
-      <c r="B9" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>5</v>
-      </c>
-      <c r="B10" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>5</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -755,7 +700,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -799,7 +744,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -846,7 +791,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -879,7 +824,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -962,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>15.20851569551316</v>
+        <v>20.63858450874014</v>
       </c>
     </row>
     <row r="4">
@@ -970,7 +915,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>19.09486359553446</v>
+        <v>19.09486359553444</v>
       </c>
     </row>
     <row r="5">
@@ -986,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5.427798817200209</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -994,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>20</v>
+        <v>15.91036991521413</v>
       </c>
     </row>
     <row r="8">
@@ -1010,7 +955,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>27.75248347305559</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1024,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1056,10 +1001,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1070,10 +1015,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -1084,10 +1029,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -1098,10 +1043,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
@@ -1112,155 +1057,15 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>2</v>
-      </c>
-      <c r="B7" t="n">
-        <v>6</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>2</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>2</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>2</v>
-      </c>
-      <c r="B9" t="n">
-        <v>6</v>
-      </c>
-      <c r="C9" t="n">
-        <v>3</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>2</v>
-      </c>
-      <c r="B10" t="n">
-        <v>6</v>
-      </c>
-      <c r="C10" t="n">
-        <v>4</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>2</v>
-      </c>
-      <c r="B11" t="n">
-        <v>6</v>
-      </c>
-      <c r="C11" t="n">
-        <v>5</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>5</v>
-      </c>
-      <c r="B12" t="n">
-        <v>7</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>5</v>
-      </c>
-      <c r="B13" t="n">
-        <v>7</v>
-      </c>
-      <c r="C13" t="n">
-        <v>2</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>5</v>
-      </c>
-      <c r="B14" t="n">
-        <v>7</v>
-      </c>
-      <c r="C14" t="n">
-        <v>3</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>5</v>
-      </c>
-      <c r="B15" t="n">
-        <v>7</v>
-      </c>
-      <c r="C15" t="n">
-        <v>4</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>5</v>
-      </c>
-      <c r="B16" t="n">
-        <v>7</v>
-      </c>
-      <c r="C16" t="n">
-        <v>5</v>
-      </c>
-      <c r="D16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1363,7 +1168,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>148.2050000000007</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8">
@@ -1374,7 +1179,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>145.8200000000007</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9">
@@ -1385,7 +1190,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>149.1050000000006</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10">
@@ -1396,7 +1201,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>152.8100000000007</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11">
@@ -1407,7 +1212,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>151.2100000000007</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12">
@@ -1418,7 +1223,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>254.4650000000002</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13">
@@ -1429,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>255.6850000000009</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14">
@@ -1440,7 +1245,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>256.8300000000008</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15">
@@ -1451,7 +1256,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>264.7700000000001</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16">
@@ -1462,7 +1267,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>262.1600000000001</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17">
@@ -1473,7 +1278,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>72.47999999999935</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18">
@@ -1484,7 +1289,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>77.40999999999934</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19">
@@ -1495,7 +1300,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>81.15000000000001</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20">
@@ -1506,7 +1311,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>74.90999999999934</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21">
@@ -1517,7 +1322,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>75.71999999999935</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22">
@@ -1528,7 +1333,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>84.08</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23">
@@ -1539,7 +1344,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>75.84</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24">
@@ -1550,7 +1355,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>80.25999999999999</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25">
@@ -1561,7 +1366,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>81.81999999999999</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26">
@@ -1572,7 +1377,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>80.22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27">
@@ -1583,7 +1388,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>142.7099999999991</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28">
@@ -1594,7 +1399,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>157.6399999999991</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29">
@@ -1605,7 +1410,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>167.4249999999991</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30">
@@ -1616,7 +1421,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>162.3149999999991</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31">
@@ -1627,7 +1432,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>160.1099999999991</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32">
@@ -1638,7 +1443,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>254.4649999999996</v>
+        <v>128</v>
       </c>
     </row>
     <row r="33">
@@ -1649,7 +1454,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>255.6850000000006</v>
+        <v>132</v>
       </c>
     </row>
     <row r="34">
@@ -1660,7 +1465,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>256.8300000000005</v>
+        <v>134</v>
       </c>
     </row>
     <row r="35">
@@ -1671,7 +1476,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>264.7699999999994</v>
+        <v>134</v>
       </c>
     </row>
     <row r="36">
@@ -1682,7 +1487,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>262.1599999999994</v>
+        <v>124</v>
       </c>
     </row>
     <row r="37">
@@ -1693,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>142.7099999999991</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38">
@@ -1704,7 +1509,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>157.6399999999991</v>
+        <v>99</v>
       </c>
     </row>
     <row r="39">
@@ -1715,7 +1520,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>167.4249999999991</v>
+        <v>105</v>
       </c>
     </row>
     <row r="40">
@@ -1726,7 +1531,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>162.3149999999991</v>
+        <v>101</v>
       </c>
     </row>
     <row r="41">
@@ -1737,7 +1542,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>160.1099999999991</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1784,7 +1589,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>154.4649999999996</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
@@ -1795,7 +1600,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>155.6850000000006</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
@@ -1806,7 +1611,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>156.8300000000005</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5">
@@ -1817,7 +1622,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>164.7699999999994</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6">
@@ -1828,7 +1633,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>162.1599999999994</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7">
@@ -1839,7 +1644,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>42.70999999999913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1850,7 +1655,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>57.63999999999913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1861,7 +1666,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>67.42499999999913</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -1872,7 +1677,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>62.31499999999912</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -1883,7 +1688,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>60.1099999999991</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1930,7 +1735,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>4.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1941,7 +1746,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>6.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1952,7 +1757,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>6.995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1963,7 +1768,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>5.92</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1974,7 +1779,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>4.86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1985,7 +1790,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>5.14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1996,7 +1801,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>12.2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -2007,7 +1812,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>8.99</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -2018,7 +1823,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>13.25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -2029,7 +1834,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>11.68</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -2040,7 +1845,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>27.065</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13">
@@ -2051,7 +1856,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>15.105</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14">
@@ -2062,7 +1867,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>18.92</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15">
@@ -2073,7 +1878,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>15.185</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16">
@@ -2084,7 +1889,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>27.06</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17">
@@ -2095,7 +1900,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>24.435</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18">
@@ -2106,7 +1911,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>21.08</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -2117,7 +1922,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>26.385</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20">
@@ -2128,7 +1933,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>21.925</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21">
@@ -2139,7 +1944,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>20.27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22">
@@ -2150,7 +1955,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>6.99</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23">
@@ -2161,7 +1966,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>7.115</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24">
@@ -2172,7 +1977,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>5.205</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25">
@@ -2183,7 +1988,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>4.455</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26">
@@ -2194,7 +1999,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>6.025</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -2208,7 +2013,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2238,7 +2043,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -2249,7 +2054,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -2257,10 +2062,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -2268,10 +2073,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -2279,10 +2084,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -2293,7 +2098,7 @@
         <v>2</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -2304,97 +2109,9 @@
         <v>2</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>2</v>
-      </c>
-      <c r="B9" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>2</v>
-      </c>
-      <c r="B10" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>2</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>5</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>5</v>
-      </c>
-      <c r="B13" t="n">
-        <v>2</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>5</v>
-      </c>
-      <c r="B14" t="n">
-        <v>3</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>5</v>
-      </c>
-      <c r="B15" t="n">
-        <v>4</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>5</v>
-      </c>
-      <c r="B16" t="n">
-        <v>5</v>
-      </c>
-      <c r="C16" t="n">
         <v>1</v>
       </c>
     </row>
